--- a/TestData/Production/Web_POS/Billing/split_payment_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/split_payment_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\PRODUCTION\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_1</t>
@@ -684,8 +687,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A17">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="O19">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="12.75"/>
@@ -779,185 +782,194 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1234</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="5">
         <v>45384</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y2">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>1234</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>123456</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="5">
         <v>45384</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y3">
+        <v>4523698203</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8">
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8">
         <v>123456</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -966,72 +978,75 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" s="5">
         <v>45384</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y4">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="5" ht="34.8" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8">
         <v>1234</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8">
         <v>123456</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1040,69 +1055,72 @@
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="5">
         <v>45384</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y5">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="1">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1234</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3">
         <v>123456</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="10">
         <v>1</v>
@@ -1111,72 +1129,75 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" s="5">
         <v>45384</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y6">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="7" ht="33.75" customHeight="1">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>1234</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3">
         <v>123456</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="10">
         <v>1</v>
@@ -1185,72 +1206,75 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O7" s="5">
         <v>45384</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R7" s="11">
         <v>7709577438</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y7">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8">
         <v>1234</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>123456</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="10">
         <v>1</v>
@@ -1259,220 +1283,229 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O8" s="5">
         <v>45384</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R8" s="11">
         <v>7709577438</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y8">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8">
         <v>1234</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8">
         <v>123456</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O9" s="5">
         <v>45384</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y9">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="10" ht="33.75" customHeight="1">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1234</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="8">
         <v>123456</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O10" s="5">
         <v>45384</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y10">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>1234</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3">
         <v>123456</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11" s="10">
         <v>1</v>
@@ -1481,72 +1514,75 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O11" s="5">
         <v>45384</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R11" s="11">
         <v>7709577438</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y11">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8">
         <v>1234</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3">
         <v>123456</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J12" s="10">
         <v>1</v>
@@ -1555,72 +1591,75 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" s="5">
         <v>45384</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R12" s="11">
         <v>7709577438</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y12">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8">
         <v>1234</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3">
         <v>123456</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -1629,72 +1668,75 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O13" s="5">
         <v>45384</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R13" s="11">
         <v>7709577438</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y13">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="14" ht="26.25" customHeight="1">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1234</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3">
         <v>123456</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="10">
         <v>1</v>
@@ -1703,72 +1745,75 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="5">
         <v>45384</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R14" s="11">
         <v>7709577438</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y14">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>1234</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3">
         <v>123456</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" s="10">
         <v>1</v>
@@ -1777,117 +1822,123 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="5">
         <v>45384</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R15" s="11">
         <v>7709577438</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y15">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="8">
         <v>1234</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="8">
         <v>123456</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O16" s="13">
         <v>45384</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y16">
+        <v>7841203682</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
@@ -2362,31 +2413,31 @@
     </row>
     <row r="17" ht="31.5" customHeight="1">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="8">
         <v>1234</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3">
         <v>123456</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" s="10">
         <v>1</v>
@@ -2395,149 +2446,155 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O17" s="5">
         <v>45384</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R17" s="11">
         <v>7709577438</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y17">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="18" ht="31.5" customHeight="1">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>1234</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>123456</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O18" s="13">
         <v>45384</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y18">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="19" ht="31.5" customHeight="1">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>1234</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="8">
         <v>123456</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2546,217 +2603,226 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O19" s="13">
         <v>45384</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y19">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="20" ht="31.5" customHeight="1">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="8">
         <v>1234</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20">
         <v>123456</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O20" s="13">
         <v>45384</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R20" s="11">
         <v>7709577438</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y20">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="21" ht="31.5" customHeight="1">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="8">
         <v>1234</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>123456</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" s="13">
         <v>45384</v>
       </c>
       <c r="P21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R21" s="11">
         <v>7709577438</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2">
         <v>300</v>
       </c>
       <c r="U21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y21">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="22" ht="32.25" customHeight="1">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>1234</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3">
         <v>123456</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J22" s="10">
         <v>1</v>
@@ -2765,72 +2831,75 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O22" s="5">
         <v>45384</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R22" s="11">
         <v>7709577438</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y22">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="23" ht="28.5" customHeight="1">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>1234</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="3">
         <v>123456</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J23" s="10">
         <v>1</v>
@@ -2839,72 +2908,75 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O23" s="5">
         <v>45384</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R23" s="11">
         <v>7709577438</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y23">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="8">
         <v>1234</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" s="3">
         <v>123456</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J24" s="10">
         <v>1</v>
@@ -2913,72 +2985,75 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O24" s="5">
         <v>45384</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R24" s="11">
         <v>7709577438</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y24">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="8">
         <v>1234</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="3">
         <v>123456</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J25" s="10">
         <v>1</v>
@@ -2987,72 +3062,75 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O25" s="5">
         <v>45384</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R25" s="11">
         <v>6375266109</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y25">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>1234</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" s="3">
         <v>123456</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" s="10">
         <v>1</v>
@@ -3061,72 +3139,75 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O26" s="5">
         <v>45384</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R26" s="11">
         <v>7709577438</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y26">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>1234</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="3">
         <v>123456</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J27" s="10">
         <v>1</v>
@@ -3135,72 +3216,75 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O27" s="5">
         <v>45384</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R27" s="11">
         <v>7709577438</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y27">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="8">
         <v>1234</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="3">
         <v>123456</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J28" s="10">
         <v>1</v>
@@ -3209,43 +3293,46 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O28" s="5">
         <v>45384</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R28" s="11">
         <v>7709577438</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Y28">
+        <v>7841203682</v>
       </c>
     </row>
     <row r="29" ht="14.25">

--- a/TestData/Production/Web_POS/Billing/split_payment_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/split_payment_test_data.xlsx
@@ -251,7 +251,7 @@
     <t>QBSB-Specificity-Flat-fixed-all</t>
   </si>
   <si>
-    <t xml:space="preserve">UsB4R2 </t>
+    <t>XrxLyp</t>
   </si>
   <si>
     <t>TC_19</t>
@@ -260,16 +260,13 @@
     <t>cash : 275, store-credit : 100, voucher : 0</t>
   </si>
   <si>
-    <t>O5eza0</t>
+    <t>YwGYCP</t>
   </si>
   <si>
     <t>TC_20</t>
   </si>
   <si>
     <t>cash : 275, store-credit : 275</t>
-  </si>
-  <si>
-    <t>m3DOdg</t>
   </si>
   <si>
     <t>TC_21</t>
@@ -687,8 +684,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="O19">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q13">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="12.75"/>
@@ -2787,7 +2784,7 @@
         <v>36</v>
       </c>
       <c r="W21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>32</v>
@@ -2798,7 +2795,7 @@
     </row>
     <row r="22" ht="32.25" customHeight="1">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -2831,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>33</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="23" ht="28.5" customHeight="1">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>26</v>
@@ -2940,7 +2937,7 @@
       <c r="V23" t="s">
         <v>36</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="X23" s="2" t="s">
@@ -2952,7 +2949,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>26</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
@@ -3065,7 +3062,7 @@
         <v>50</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" t="s">
         <v>46</v>
@@ -3106,7 +3103,7 @@
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
@@ -3183,7 +3180,7 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
@@ -3260,7 +3257,7 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
@@ -3314,7 +3311,7 @@
         <v>7709577438</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>32</v>

--- a/TestData/Production/Web_POS/Billing/split_payment_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/split_payment_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Downloads\zwing-qa-automation\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,10 +134,10 @@
     <t>TC_2</t>
   </si>
   <si>
-    <t>239120824i7n</t>
-  </si>
-  <si>
-    <t>B_Split_Payment_user2_p3</t>
+    <t>239200824j6G</t>
+  </si>
+  <si>
+    <t>b_split_payment_p2</t>
   </si>
   <si>
     <t>1234b : 1</t>
@@ -684,8 +684,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="Q13">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="L7">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="12.75"/>
@@ -1451,8 +1451,8 @@
       <c r="Q10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>32</v>
+      <c r="R10" s="11">
+        <v>7709577438</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>32</v>
